--- a/data/trans_bre/P9_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_1_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,69</t>
+          <t>-0,46; 4,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,63</t>
+          <t>-2,08; 3,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,68</t>
+          <t>-1,0; 3,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 6,64</t>
+          <t>-1,64; 6,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 246,56</t>
+          <t>-17,57; 210,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 133,18</t>
+          <t>-40,8; 120,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 369,06</t>
+          <t>-37,41; 337,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-75,53; 1151,89</t>
+          <t>-70,95; 1225,28</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,79</t>
+          <t>2,79; 8,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,84</t>
+          <t>-1,03; 3,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,33</t>
+          <t>-0,8; 4,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 1,72</t>
+          <t>-5,94; 1,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,84; 343,21</t>
+          <t>62,63; 351,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 148,18</t>
+          <t>-24,51; 144,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 134,99</t>
+          <t>-16,46; 148,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,01; 38,09</t>
+          <t>-58,76; 28,93</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,71</t>
+          <t>1,64; 7,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,47</t>
+          <t>2,18; 8,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,39</t>
+          <t>1,87; 7,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 5,5</t>
+          <t>-1,04; 5,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,39; 173,93</t>
+          <t>23,26; 187,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,87; 160,68</t>
+          <t>26,91; 170,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,69; 230,23</t>
+          <t>32,4; 234,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 86,49</t>
+          <t>-10,86; 90,15</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,83</t>
+          <t>3,33; 10,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 10,79</t>
+          <t>2,61; 10,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 6,73</t>
+          <t>-0,54; 6,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,28</t>
+          <t>0,12; 8,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,02; 186,22</t>
+          <t>34,94; 182,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,87; 153,29</t>
+          <t>21,23; 148,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 78,25</t>
+          <t>-4,95; 77,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 83,73</t>
+          <t>0,86; 84,46</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 7,31</t>
+          <t>-2,64; 8,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 18,84</t>
+          <t>7,53; 18,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 15,95</t>
+          <t>5,77; 16,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,09</t>
+          <t>-0,37; 8,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 57,21</t>
+          <t>-13,53; 64,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,55; 138,44</t>
+          <t>39,64; 136,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,74; 151,54</t>
+          <t>35,02; 152,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 45,65</t>
+          <t>-1,78; 48,6</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,59; 18,96</t>
+          <t>8,28; 18,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 21,53</t>
+          <t>9,69; 21,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,77; 26,21</t>
+          <t>15,33; 25,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 19,12</t>
+          <t>2,92; 19,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,34; 84,04</t>
+          <t>28,56; 83,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,05; 65,85</t>
+          <t>24,44; 66,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,09; 104,49</t>
+          <t>50,49; 103,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,03; 79,33</t>
+          <t>11,77; 79,97</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,0</t>
+          <t>5,58; 8,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,61</t>
+          <t>7,1; 10,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,77</t>
+          <t>7,24; 10,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,02</t>
+          <t>3,93; 7,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>58,13; 109,02</t>
+          <t>57,56; 108,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>53,85; 94,54</t>
+          <t>55,42; 95,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>64,83; 110,52</t>
+          <t>62,59; 110,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,86; 60,81</t>
+          <t>26,42; 59,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_1_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 4,58</t>
+          <t>-0,46; 4,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 3,48</t>
+          <t>-1,97; 3,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,54</t>
+          <t>-1,24; 3,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 210,66</t>
+          <t>-16,13; 219,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,8; 120,09</t>
+          <t>-38,43; 122,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 337,11</t>
+          <t>-42,09; 312,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 8,27</t>
+          <t>2,93; 8,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,83</t>
+          <t>-1,0; 3,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 4,59</t>
+          <t>-0,98; 4,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,63; 351,51</t>
+          <t>61,85; 379,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 144,0</t>
+          <t>-23,47; 150,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 148,15</t>
+          <t>-18,84; 143,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,54</t>
+          <t>1,5; 7,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 8,6</t>
+          <t>2,26; 8,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,77</t>
+          <t>1,93; 7,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,26; 187,63</t>
+          <t>21,16; 195,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,91; 170,89</t>
+          <t>28,57; 162,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,4; 234,9</t>
+          <t>33,86; 240,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 10,68</t>
+          <t>3,17; 10,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 10,5</t>
+          <t>2,64; 10,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 6,88</t>
+          <t>-0,61; 6,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,94; 182,33</t>
+          <t>30,04; 186,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,23; 148,05</t>
+          <t>24,41; 140,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 77,76</t>
+          <t>-6,07; 78,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 8,1</t>
+          <t>-2,87; 7,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 18,47</t>
+          <t>7,01; 18,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 16,71</t>
+          <t>6,16; 16,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 64,72</t>
+          <t>-16,3; 56,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,64; 136,81</t>
+          <t>35,6; 134,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,02; 152,26</t>
+          <t>37,23; 149,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,28; 18,86</t>
+          <t>7,77; 18,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,69; 21,63</t>
+          <t>9,64; 21,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,33; 25,98</t>
+          <t>15,12; 25,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,56; 83,83</t>
+          <t>26,39; 81,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,44; 66,48</t>
+          <t>24,5; 68,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,49; 103,5</t>
+          <t>50,08; 104,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,91</t>
+          <t>5,68; 8,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,1; 10,77</t>
+          <t>7,02; 10,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,76</t>
+          <t>7,07; 10,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>57,56; 108,24</t>
+          <t>57,25; 104,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>55,42; 95,49</t>
+          <t>55,03; 94,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>62,59; 110,42</t>
+          <t>62,31; 108,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
